--- a/105-04448-R0_StrainResult (MK3).xlsx
+++ b/105-04448-R0_StrainResult (MK3).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250F8FB0-8EA8-4738-83B6-152515A1CB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D44FB01-9FB3-414F-95D6-6A290E7C37DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1485" windowWidth="18240" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <author>tc={D77C0786-37EA-4405-96E2-95C9BDE2FDDA}</author>
     <author>tc={E44DE748-AFB9-401A-91CE-EBC1815F0428}</author>
     <author>tc={7932AC5E-1973-4331-8918-A706396A67CE}</author>
-    <author>tc={F0A895FC-A966-45DD-A37C-7B93878F8E00}</author>
     <author>tc={830A3F30-680C-4264-BE7A-0D216F00AEDB}</author>
   </authors>
   <commentList>
@@ -57,15 +56,7 @@
     輕微超標</t>
       </text>
     </comment>
-    <comment ref="O10" authorId="3" shapeId="0" xr:uid="{F0A895FC-A966-45DD-A37C-7B93878F8E00}">
-      <text>
-        <t>[對話串註解]
-您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
-註解:
-    靠近conn無法underfill，且輕微超標</t>
-      </text>
-    </comment>
-    <comment ref="M11" authorId="4" shapeId="0" xr:uid="{830A3F30-680C-4264-BE7A-0D216F00AEDB}">
+    <comment ref="M11" authorId="3" shapeId="0" xr:uid="{830A3F30-680C-4264-BE7A-0D216F00AEDB}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -78,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="119">
   <si>
     <t>C302</t>
   </si>
@@ -433,6 +424,10 @@
   </si>
   <si>
     <t>I509A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELOT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +438,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,12 +460,6 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -520,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -534,6 +523,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -853,9 +843,6 @@
   <threadedComment ref="K6" dT="2023-09-22T23:05:12.01" personId="{7290C511-2D70-40CE-AD1E-82AF72429361}" id="{7932AC5E-1973-4331-8918-A706396A67CE}">
     <text>輕微超標</text>
   </threadedComment>
-  <threadedComment ref="O10" dT="2023-09-22T23:04:56.08" personId="{7290C511-2D70-40CE-AD1E-82AF72429361}" id="{F0A895FC-A966-45DD-A37C-7B93878F8E00}">
-    <text>靠近conn無法underfill，且輕微超標</text>
-  </threadedComment>
   <threadedComment ref="M11" dT="2023-09-22T23:05:05.84" personId="{7290C511-2D70-40CE-AD1E-82AF72429361}" id="{830A3F30-680C-4264-BE7A-0D216F00AEDB}">
     <text>輕微超標</text>
   </threadedComment>
@@ -866,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1204,8 +1191,8 @@
       <c r="M10">
         <v>1</v>
       </c>
-      <c r="O10" s="5">
-        <v>0</v>
+      <c r="O10" s="7">
+        <v>1</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -1268,6 +1255,9 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
